--- a/biology/Médecine/Anneau_tympanique/Anneau_tympanique.xlsx
+++ b/biology/Médecine/Anneau_tympanique/Anneau_tympanique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'anneau tympanique (ou anneau tympanal ou cercle tympanal) est une structure osseuse présent chez le nouveau-né correspondant à la partie tympanique de l'os temporal.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'anneau tympanique est incomplet et ouvert en haut. Ses deux extrémités sont soudées à la partie inférieure de l'écaille de l'os temporal.
 Au cours de la croissance l'anneau tympanique s'étend vers l'extérieur et se transforme en une gouttière à ouverture supérieure, les bords de la gouttière restant soudés à la partie pétreuse de l'os temporal. A la fin de la croissance, elle forme les parois antérieure, inférieure et postérieure du méat acoustique externe.
